--- a/Sprint-2/Sprint_1 Burndown-Backlog.xlsx
+++ b/Sprint-2/Sprint_1 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Projeto PDS\adocao\Sprint-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao2\Sprint-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Breno Burndown" sheetId="4" r:id="rId4"/>
     <sheet name="Alexandre Burndown" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -185,16 +185,22 @@
   <si>
     <t>Alexandre</t>
   </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,6 +294,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -454,32 +468,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,24 +531,6 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -570,6 +542,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,10 +576,31 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,24 +609,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3799,7 +3814,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3948,6 +3963,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B25F-4BA6-B823-6B646DCDECAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4052,30 +4072,35 @@
                   <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>25.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>21.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.5</c:v>
+                  <c:v>14.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>11.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.5</c:v>
+                  <c:v>7.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5</c:v>
+                  <c:v>5.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B25F-4BA6-B823-6B646DCDECAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4303,7 +4328,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4442,6 +4467,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38B3-4059-8152-72407AF7869D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4570,6 +4600,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38B3-4059-8152-72407AF7869D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4797,7 +4832,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4936,6 +4971,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7027-4089-A471-E33CFB343F03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5040,30 +5080,35 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.5</c:v>
+                  <c:v>9.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.5</c:v>
+                  <c:v>5.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.5</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.5</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.5</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7027-4089-A471-E33CFB343F03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5291,7 +5336,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5430,6 +5475,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52E3-40F9-BCD1-53B9BF061B4D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5558,6 +5608,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52E3-40F9-BCD1-53B9BF061B4D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5927,7 +5982,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5965,7 +6020,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6037,7 +6092,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6192,7 +6247,7 @@
   </sheetPr>
   <dimension ref="A1:AB1048571"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -6210,439 +6265,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="37">
         <v>8</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="33">
         <f>SUM(D4:D11)</f>
         <v>28.5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="36">
         <f>SUM(F4:F11)</f>
         <v>24.4</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="14">
+      <c r="E5" s="34"/>
+      <c r="F5" s="6">
         <v>6</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="50" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="14">
+      <c r="E6" s="34"/>
+      <c r="F6" s="6">
         <v>2.5</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="50" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="25">
         <v>4</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="14">
+      <c r="E7" s="34"/>
+      <c r="F7" s="6">
         <v>3.5</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="50" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="25">
         <v>5</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="14">
+      <c r="E8" s="34"/>
+      <c r="F8" s="6">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="25">
         <v>0.5</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="14">
+      <c r="E9" s="34"/>
+      <c r="F9" s="6">
         <v>0.85</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="50" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="25">
         <v>2</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="14">
+      <c r="E10" s="34"/>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="50" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="14">
+      <c r="E11" s="35"/>
+      <c r="F11" s="6">
         <v>2.4</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="51" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6694,8 +6749,8 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -6717,526 +6772,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="40">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <f>SUM('Sprint Backlog'!D:D)</f>
         <v>28.5</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
         <v>24.9375</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>21.375</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <f t="shared" si="1"/>
         <v>17.8125</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>14.25</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <f t="shared" si="1"/>
         <v>10.6875</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <f t="shared" si="1"/>
         <v>3.5625</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="15">
         <f>SUM(C5:J5)</f>
         <v>99.75</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <f>K5/A$3</f>
         <v>12.46875</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <f>B5</f>
         <v>28.5</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
         <v>28.5</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <f t="shared" si="2"/>
-        <v>26.5</v>
-      </c>
-      <c r="E6" s="23">
+        <v>25.65</v>
+      </c>
+      <c r="E6" s="15">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="F6" s="23">
+        <v>21.15</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="2"/>
-        <v>20.5</v>
-      </c>
-      <c r="G6" s="23">
+        <v>14.95</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H6" s="23">
+        <v>11.149999999999999</v>
+      </c>
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I6" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
-        <v>14.5</v>
-      </c>
-      <c r="J6" s="23">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="K6" s="23">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="K6" s="15">
         <f>SUM(C6:J6)</f>
-        <v>159.5</v>
-      </c>
-      <c r="L6" s="23">
+        <v>122.50000000000001</v>
+      </c>
+      <c r="L6" s="15">
         <f>K6/A$3</f>
-        <v>19.9375</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+        <v>15.312500000000002</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="18">
         <f>B5/A3</f>
         <v>3.5625</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="18">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="18">
+        <f t="shared" si="3"/>
+        <v>2.85</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="26">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="26">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="26">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L9" s="26">
+        <v>23.3</v>
+      </c>
+      <c r="L9" s="18">
         <f>K9/A$3</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="20">
         <f>'Danilo Burndown'!B9</f>
         <v>2.125</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <f>'Danilo Burndown'!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <f>'Danilo Burndown'!D9</f>
         <v>2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="15">
         <f>'Danilo Burndown'!E9</f>
         <v>3.5</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <f>'Danilo Burndown'!F9</f>
         <v>2.5</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <f>'Danilo Burndown'!G9</f>
         <v>2.5</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <f>'Danilo Burndown'!H9</f>
         <v>2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="15">
         <f>'Danilo Burndown'!I9</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <f>'Danilo Burndown'!J9</f>
         <v>2</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <f>SUM(C10:J10)</f>
         <v>16</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <f>K10/A$3</f>
         <v>2</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="20">
         <f>'Alexandre Burndown'!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="15">
         <f>'Alexandre Burndown'!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="15">
         <f>'Alexandre Burndown'!D9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="15">
         <f>'Alexandre Burndown'!E9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <f>'Alexandre Burndown'!F9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <f>'Alexandre Burndown'!G9</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <f>'Alexandre Burndown'!H9</f>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <f>'Alexandre Burndown'!I9</f>
         <v>0</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <f>'Alexandre Burndown'!J9</f>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <f>K11/A$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="21">
         <f>'Breno Burndown'!B9</f>
         <v>1.4375</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <f>'Breno Burndown'!C9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="15">
         <f>'Breno Burndown'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="E12" s="15">
         <f>'Breno Burndown'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
         <f>'Breno Burndown'!F9</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+        <v>3.7</v>
+      </c>
+      <c r="G12" s="15">
         <f>'Breno Burndown'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="15">
         <f>'Breno Burndown'!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="I12" s="15">
         <f>'Breno Burndown'!I9</f>
         <v>0</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <f>'Breno Burndown'!J9</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="L12" s="15">
         <f>K12/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+        <v>0.91250000000000009</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8287,7 +8342,7 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -8302,487 +8357,487 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="40">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <v>17</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
         <v>14.875</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>12.75</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <f t="shared" si="1"/>
         <v>10.625</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <f t="shared" si="1"/>
         <v>6.375</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <f t="shared" si="1"/>
         <v>2.125</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="15">
         <f>SUM(C5:J5)</f>
         <v>59.5</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <f>K5/A$3</f>
         <v>7.4375</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <f>B5</f>
         <v>17</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
         <v>17</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="15">
         <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="15">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="15">
         <f>SUM(C6:J6)</f>
         <v>67.5</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <f>K6/A$3</f>
         <v>8.4375</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="18">
         <f>B5/A3</f>
         <v>2.125</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="18">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C13)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="18">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="18">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="18">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="18">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23">
+      <c r="B10" s="45"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
         <v>2</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15">
         <f>SUM(C10:J10)</f>
         <v>4</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <f>K10/A$3</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>3.5</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>2.5</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <f>SUM(C11:J11)</f>
         <v>6</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <f>K11/A$3</f>
         <v>0.75</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="47"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
         <v>2.5</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <f>SUM(C12:J12)</f>
         <v>2.5</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <f>K12/A$3</f>
         <v>0.3125</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23">
+      <c r="B13" s="50"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
         <v>1.5</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <v>2</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="15">
         <f>SUM(C13:J13)</f>
         <v>3.5</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <f>K13/A$3</f>
         <v>0.4375</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8790,12 +8845,7 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
@@ -8812,7 +8862,12 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="16" priority="2">
@@ -8859,8 +8914,8 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8874,473 +8929,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="40">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <v>11.5</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
         <v>10.0625</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>8.625</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <f t="shared" si="1"/>
         <v>7.1875</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <f t="shared" si="1"/>
         <v>4.3125</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <f t="shared" si="1"/>
         <v>1.4375</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="15">
         <f>SUM(C5:J5)</f>
         <v>40.25</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <f>K5/A$3</f>
         <v>5.03125</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <f>B5</f>
         <v>11.5</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
         <v>11.5</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="E6" s="23">
+        <v>10.65</v>
+      </c>
+      <c r="E6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="F6" s="23">
+        <v>9.65</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="G6" s="23">
+        <v>5.95</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="H6" s="23">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="I6" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="J6" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="K6" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="K6" s="15">
         <f>SUM(C6:J6)</f>
-        <v>92</v>
-      </c>
-      <c r="L6" s="23">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="L6" s="15">
         <f>K6/A$3</f>
-        <v>11.5</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+        <v>6.8750000000000009</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="18">
         <f>B5/A3</f>
         <v>1.4375</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="18">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="I9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="J9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
+        <v>7.3</v>
+      </c>
+      <c r="L9" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23">
+      <c r="B10" s="51"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L10" s="15">
         <f>K10/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23">
+      <c r="B11" s="48"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="L11" s="15">
         <f>K11/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+        <v>0.10625</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23">
+      <c r="B12" s="48"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
         <f>K12/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23">
+      <c r="B13" s="51"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="15">
         <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="L13" s="15">
         <f>K13/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J14" s="54"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9348,11 +9420,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9367,6 +9434,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -9392,7 +9464,7 @@
     <cfRule type="notContainsText" dxfId="5" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -9420,466 +9492,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <f>A3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:J2" si="0">C2-1</f>
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="40">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <f>SUMIF('Sprint Backlog'!C:C,"=Cicrano",'Sprint Backlog'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="15">
         <f>SUM(C5:J5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <f>K5/A$3</f>
         <v>0</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
         <v>0</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="15">
         <f>SUM(C6:J6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <f>K6/A$3</f>
         <v>0</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="18">
         <f>B5/A3</f>
         <v>0</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="18">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15">
         <f>SUM(C10:J10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <f>K10/A$3</f>
         <v>0</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <f>K11/A$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <f>SUM(C12:J12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <f>K12/A$3</f>
         <v>0</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
         <f>SUM(C13:J13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <f>K13/A$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9887,11 +9959,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9906,6 +9973,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="4" priority="2">
